--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MountItemEntity" sheetId="1" r:id="rId1"/>
-    <sheet name="MountItemEnforceEntity" sheetId="2" r:id="rId2"/>
-    <sheet name="MountItemTeerEntity" sheetId="3" r:id="rId3"/>
-    <sheet name="MountItemGradeEntity" sheetId="4" r:id="rId4"/>
-    <sheet name="MountItemStatEntity" sheetId="5" r:id="rId5"/>
+    <sheet name="MountItemStatEntity" sheetId="5" r:id="rId2"/>
+    <sheet name="StatEntity" sheetId="7" r:id="rId3"/>
+    <sheet name="MountItemEnforceEntity" sheetId="2" r:id="rId4"/>
+    <sheet name="MountItemTeerEntity" sheetId="3" r:id="rId5"/>
+    <sheet name="MountItemGradeEntity" sheetId="4" r:id="rId6"/>
+    <sheet name="EtcItemEntity" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mountItemNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +176,132 @@
   </si>
   <si>
     <t>plusValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etcitemNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MountitemType</t>
+  </si>
+  <si>
+    <t>mountitemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Accesory</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>낡은방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatType</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>CriDmg</t>
+  </si>
+  <si>
+    <t>CriPercent</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>statType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI PERCENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,58 +638,64 @@
     <col min="1" max="6" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -573,19 +703,22 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -593,86 +726,124 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -685,10 +856,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -823,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -903,136 +1329,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MountItemEntity" sheetId="1" r:id="rId1"/>
@@ -203,105 +203,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mountitemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Accesory</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>낡은방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatType</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>CriDmg</t>
+  </si>
+  <si>
+    <t>CriPercent</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>statType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI PERCENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MountitemType</t>
-  </si>
-  <si>
-    <t>mountitemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t>Accesory</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>낡은방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatType</t>
-  </si>
-  <si>
-    <t>Str</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>CriDmg</t>
-  </si>
-  <si>
-    <t>CriPercent</t>
-  </si>
-  <si>
-    <t>Spd</t>
-  </si>
-  <si>
-    <t>statType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dex</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Atk</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>DATAEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRI DMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRI PERCENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -666,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -689,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -712,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -735,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -758,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -781,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -804,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -827,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -872,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -905,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -916,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -927,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -938,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -949,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -960,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -971,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -982,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -1003,103 +1004,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1194,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isSpeJobPossible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>possibleJobNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목장갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +200,6 @@
     <t>Defense</t>
   </si>
   <si>
-    <t>낡은방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StatType</t>
   </si>
   <si>
@@ -303,6 +283,18 @@
   </si>
   <si>
     <t>MountitemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스릴갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이퍼 스파이어럴 링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리바바 걸대거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,12 +631,12 @@
     <col min="1" max="6" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -653,50 +645,44 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,21 +690,18 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="b">
+        <v>68</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -727,125 +710,110 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="b">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +828,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,21 +841,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -906,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -917,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -928,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -939,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -950,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -961,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -972,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -983,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -991,7 +959,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1012,95 +980,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1125,24 +1093,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1148,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1209,10 +1177,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1209,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1268,15 +1236,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,12 +1284,12 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1348,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,12 +1348,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
@@ -282,19 +282,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>미스릴갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이퍼 스파이어럴 링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리바바 걸대거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MountitemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스릴갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이퍼 스파이어럴 링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알리바바 걸대거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +623,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -799,7 +799,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>

--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Item.xlsx
@@ -194,9 +194,6 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t>Accesory</t>
-  </si>
-  <si>
     <t>Defense</t>
   </si>
   <si>
@@ -295,6 +292,10 @@
   </si>
   <si>
     <t>알리바바 걸대거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +624,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -696,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -719,7 +720,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -796,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -841,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -863,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -874,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -885,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -896,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -907,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -918,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -929,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -940,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -951,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -980,95 +981,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
